--- a/ders_takip/aktif_erp_Sübhan akbenli_Türkçe.xlsx
+++ b/ders_takip/aktif_erp_Sübhan akbenli_Türkçe.xlsx
@@ -896,7 +896,11 @@
           <t>Müdür Yardımcısı Onaylı Ders Belgesi</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr"/>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>uploads/aayakit.png</t>
+        </is>
+      </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
           <t>Hayır</t>
